--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_connection_point_test_ni_connection_point_precedence_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_connection_point_test_ni_connection_point_precedence_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:90064d45-a0a8-40c4-85e4-f23d7da1a292"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:696c2f48-7ec0-466a-9144-4db731c48be8"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
